--- a/data/treedata.xlsx
+++ b/data/treedata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="164">
   <si>
     <t>古树品种</t>
   </si>
@@ -71,26 +71,6 @@
   </si>
   <si>
     <t>雷击</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年前</t>
-    </r>
   </si>
   <si>
     <r>
@@ -411,6 +391,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>长期生长环境破坏</t>
     </r>
     <r>
@@ -433,9 +419,6 @@
     </r>
   </si>
   <si>
-    <t>至2025年持续</t>
-  </si>
-  <si>
     <t>树龄268年的古榕树因拆迁后​​被水泥高台圈围​​，根系无法吸水，长期干旱导致枝叶枯槁，虽经营养液灌溉仍​​持续凋敝​​，濒临死亡。</t>
   </si>
   <si>
@@ -747,9 +730,6 @@
     <t>雪灾</t>
   </si>
   <si>
-    <t>2023年冬-2024年春</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -869,9 +849,6 @@
     <t>洪涝灾害</t>
   </si>
   <si>
-    <t>2023年7-8月</t>
-  </si>
-  <si>
     <t>贾沟村古槐树围栏被冲毁、支撑杆弯折，树根裸露需紧急回填；树皮局部破损</t>
   </si>
   <si>
@@ -992,9 +969,6 @@
     <t>重庆酉阳县</t>
   </si>
   <si>
-    <t>2022年（全年）</t>
-  </si>
-  <si>
     <t>全市干旱导致275株古树死亡（含19株1级古树），楠木古树群生长衰弱；通过智慧监测系统实时预警</t>
   </si>
   <si>
@@ -1142,9 +1116,6 @@
   </si>
   <si>
     <t>冰雹暴风雨</t>
-  </si>
-  <si>
-    <t>2021年（持续）</t>
   </si>
   <si>
     <t>1200年“红豆树王”主干中空腐朽，冰雹加剧树体衰弱；经基因保存（嫁接扦插）和清腐处理延缓衰亡。</t>
@@ -2223,6 +2194,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="57" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2248,9 +2222,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
@@ -2800,7 +2771,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2843,674 +2814,674 @@
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6">
+        <v>45627</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="51" spans="1:6">
       <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="8">
+        <v>45778</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7">
-        <v>45778</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="56" spans="1:6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="8">
+        <v>45352</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7">
-        <v>45352</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" ht="42" spans="1:6">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="8">
+        <v>45444</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="F5" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" ht="56" spans="1:6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="D6" s="8">
+        <v>45748</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="7">
-        <v>45748</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" ht="42" spans="1:6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="D7" s="8">
+        <v>45809</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="F7" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="7">
-        <v>45809</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" ht="42" spans="1:6">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="D8" s="8">
+        <v>45809</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" s="7">
-        <v>45809</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" ht="30.5" spans="1:6">
       <c r="A9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="15">
+        <v>45474</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="F9" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="14">
-        <v>45474</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:6">
       <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="6">
+        <v>45383</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="F10" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="D10" s="15">
-        <v>45383</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:6">
       <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="D11" s="6">
+        <v>45444</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="F11" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" s="15">
-        <v>45444</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" ht="30.5" spans="1:6">
       <c r="A12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="D12" s="6">
+        <v>45261</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>52</v>
+      <c r="F12" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" ht="30.5" spans="1:6">
       <c r="A13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45536</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="F13" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="15">
-        <v>45536</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" ht="17" spans="1:6">
       <c r="A14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45170</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="F14" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="15">
-        <v>45170</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:6">
       <c r="A15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="6">
+        <v>45108</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="F15" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" ht="34" spans="1:6">
       <c r="A16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="15">
+        <v>45135</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="14">
-        <v>45135</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" ht="30.5" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="D17" s="6">
+        <v>45108</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="14">
+        <v>84</v>
+      </c>
+      <c r="D18" s="15">
         <v>44720</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="14">
+        <v>88</v>
+      </c>
+      <c r="D19" s="15">
         <v>44770</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" ht="56" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>97</v>
+        <v>48</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44713</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="34" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44713</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>103</v>
+      <c r="F21" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" ht="50" spans="1:6">
       <c r="A22" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D22" s="18">
         <v>44287</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="23" ht="45" spans="1:6">
       <c r="A23" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D23" s="18">
         <v>44403</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24" ht="56" spans="1:6">
       <c r="A24" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="D24" s="19">
+        <v>44531</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>21</v>
+        <v>111</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="62.5" spans="1:6">
       <c r="A25" s="17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D25" s="18">
         <v>43836</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>122</v>
+        <v>115</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" ht="47.5" spans="1:6">
       <c r="A26" s="17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D26" s="18">
         <v>44062</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>127</v>
+        <v>120</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="27" ht="52.5" spans="1:6">
       <c r="A27" s="17" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D27" s="19">
         <v>44044</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="28" ht="50" spans="1:6">
       <c r="A28" s="17" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D28" s="18">
         <v>44051</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>136</v>
+        <v>129</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="29" ht="50" spans="1:6">
       <c r="A29" s="17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D29" s="19">
         <v>43952</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>141</v>
+        <v>134</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="1:6">
       <c r="A30" s="17" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D30" s="18">
         <v>43620</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="31" ht="62.5" spans="1:6">
       <c r="A31" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D31" s="18">
         <v>43594</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>151</v>
+        <v>144</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="32" ht="52.5" spans="1:6">
       <c r="A32" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D32" s="19">
         <v>43678</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="33" ht="50" spans="1:6">
       <c r="A33" s="17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D33" s="18">
         <v>43676</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>161</v>
+        <v>154</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="34" ht="50" spans="1:6">
       <c r="A34" s="17" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D34" s="18">
         <v>43620</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>165</v>
+        <v>158</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="35" ht="47.5" spans="1:6">
       <c r="A35" s="17" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D35" s="18">
         <v>43620</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
